--- a/docs/source/_static/testcase/集成测试/实时用电数据-1100.xlsx
+++ b/docs/source/_static/testcase/集成测试/实时用电数据-1100.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\CommonComponents\ControllerDocs\docs\source\_static\testcase\集成测试\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B46F7DC-D4E3-406D-8E91-ED5B8668BF38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABC39915-5037-446B-BD73-627F95210748}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="61">
   <si>
     <t>用例依赖</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1346,37 +1346,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">空调机_待机期间
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(定义未确定)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-用电数据周期上传
-(每15分钟上传一次)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>压缩机运行期间
 用电数据周期上传
 (每5分钟上传一次)</t>
@@ -1438,6 +1407,91 @@
   <si>
     <t>空调机_开/关机
 状态改变后，及时上传</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1 前置条件同 用例1102 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2 关闭空调节能
+  * 登录平台，"设备管理" -&gt; "在运行控制器维护" 
+  * 单击“查询”， 在查询列表中选择目标控制器.
+  * 在控制器的“运行状态”中设置：
+       空调通电状态: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>通电</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+       节能状态: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>关闭</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+    单击“保存并下发” 按钮</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 手动开启空调(操作前空调状态应为“关机”状态)
+2 记录操作的时间 时:分:秒
+3 等待16分钟，再执行步骤4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">4 打开用电数据:
+   登录平台(运维账号) -&gt; 设备管理 -&gt; 站点设备信息 -&gt; 目标站点 
+   -&gt; 数据报表 -&gt; 用电数据 -&gt; 目标空调
+5 查看“实时用电数据"中，最后一个数据点的时间。 
+   </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>步骤5中查看到的最后数据点的时间与 步骤2记录的
+时间差值=15分钟(±30秒)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>空调机_待机期间
+用电数据周期上传
+(每15分钟上传一次)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1445,7 +1499,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1527,15 +1581,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="10">
     <fill>
@@ -1605,7 +1650,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1689,56 +1734,11 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1753,19 +1753,57 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2052,10 +2090,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF76E413-BEF3-4246-80F6-736520C81AC5}">
-  <dimension ref="A1:K48"/>
+  <dimension ref="A1:K49"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+      <selection activeCell="C42" sqref="C42:C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.5"/>
@@ -2071,111 +2109,111 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="19.8" x14ac:dyDescent="0.65">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
     </row>
     <row r="2" spans="1:8" ht="17.7" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
     </row>
     <row r="3" spans="1:8" ht="17.7" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A3" s="33"/>
-      <c r="B3" s="34" t="s">
+      <c r="A3" s="54"/>
+      <c r="B3" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
     </row>
     <row r="4" spans="1:8" ht="17.7" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A4" s="33"/>
-      <c r="B4" s="34" t="s">
+      <c r="A4" s="54"/>
+      <c r="B4" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="34"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="34"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
     </row>
     <row r="5" spans="1:8" ht="17.7" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A5" s="33"/>
-      <c r="B5" s="34" t="s">
+      <c r="A5" s="54"/>
+      <c r="B5" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="34"/>
-      <c r="D5" s="34"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="34"/>
+      <c r="C5" s="46"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="46"/>
     </row>
     <row r="6" spans="1:8" ht="17.7" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A6" s="33"/>
-      <c r="B6" s="34" t="s">
+      <c r="A6" s="54"/>
+      <c r="B6" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="34"/>
-      <c r="D6" s="34"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="34"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="46"/>
     </row>
     <row r="7" spans="1:8" ht="17.7" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A7" s="33"/>
-      <c r="B7" s="34" t="s">
+      <c r="A7" s="54"/>
+      <c r="B7" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="34"/>
-      <c r="D7" s="34"/>
-      <c r="E7" s="34"/>
-      <c r="F7" s="34"/>
+      <c r="C7" s="46"/>
+      <c r="D7" s="46"/>
+      <c r="E7" s="46"/>
+      <c r="F7" s="46"/>
     </row>
     <row r="8" spans="1:8" ht="17.7" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A8" s="33"/>
-      <c r="B8" s="34" t="s">
+      <c r="A8" s="54"/>
+      <c r="B8" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="34"/>
-      <c r="D8" s="34"/>
-      <c r="E8" s="34"/>
-      <c r="F8" s="34"/>
+      <c r="C8" s="46"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="46"/>
+      <c r="F8" s="46"/>
     </row>
     <row r="9" spans="1:8" ht="67.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A9" s="33"/>
-      <c r="B9" s="34" t="s">
+      <c r="A9" s="54"/>
+      <c r="B9" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="34"/>
-      <c r="D9" s="34"/>
-      <c r="E9" s="34"/>
-      <c r="F9" s="34"/>
+      <c r="C9" s="46"/>
+      <c r="D9" s="46"/>
+      <c r="E9" s="46"/>
+      <c r="F9" s="46"/>
     </row>
     <row r="10" spans="1:8" ht="17.7" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A10" s="33"/>
-      <c r="B10" s="34" t="s">
+      <c r="A10" s="54"/>
+      <c r="B10" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="34"/>
-      <c r="D10" s="34"/>
-      <c r="E10" s="34"/>
-      <c r="F10" s="34"/>
+      <c r="C10" s="46"/>
+      <c r="D10" s="46"/>
+      <c r="E10" s="46"/>
+      <c r="F10" s="46"/>
     </row>
     <row r="11" spans="1:8" ht="17.7" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A11" s="33"/>
+      <c r="A11" s="54"/>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
       <c r="D11" s="11"/>
@@ -2185,13 +2223,13 @@
       <c r="H11" s="8"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A12" s="35" t="s">
+      <c r="A12" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="36" t="s">
+      <c r="B12" s="47" t="s">
         <v>40</v>
       </c>
-      <c r="C12" s="36"/>
+      <c r="C12" s="47"/>
       <c r="D12" s="14"/>
       <c r="E12" s="14"/>
       <c r="F12" s="14"/>
@@ -2199,9 +2237,9 @@
       <c r="H12" s="14"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A13" s="35"/>
-      <c r="B13" s="38"/>
-      <c r="C13" s="38"/>
+      <c r="A13" s="50"/>
+      <c r="B13" s="52"/>
+      <c r="C13" s="52"/>
       <c r="D13" s="14"/>
       <c r="E13" s="14"/>
       <c r="F13" s="14"/>
@@ -2209,9 +2247,9 @@
       <c r="H13" s="14"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A14" s="35"/>
-      <c r="B14" s="38"/>
-      <c r="C14" s="38"/>
+      <c r="A14" s="50"/>
+      <c r="B14" s="52"/>
+      <c r="C14" s="52"/>
       <c r="D14" s="14"/>
       <c r="E14" s="14"/>
       <c r="F14" s="14"/>
@@ -2255,16 +2293,16 @@
       </c>
     </row>
     <row r="17" spans="1:11" ht="88.2" x14ac:dyDescent="0.5">
-      <c r="A17" s="37">
+      <c r="A17" s="51">
         <v>1100</v>
       </c>
-      <c r="B17" s="39">
+      <c r="B17" s="44">
         <v>0</v>
       </c>
-      <c r="C17" s="42" t="s">
-        <v>55</v>
-      </c>
-      <c r="D17" s="44" t="s">
+      <c r="C17" s="43" t="s">
+        <v>54</v>
+      </c>
+      <c r="D17" s="24" t="s">
         <v>24</v>
       </c>
       <c r="E17" s="24" t="s">
@@ -2274,9 +2312,9 @@
       <c r="H17" s="3"/>
     </row>
     <row r="18" spans="1:11" ht="100.8" x14ac:dyDescent="0.5">
-      <c r="A18" s="37"/>
-      <c r="B18" s="39"/>
-      <c r="C18" s="42"/>
+      <c r="A18" s="51"/>
+      <c r="B18" s="44"/>
+      <c r="C18" s="43"/>
       <c r="D18" s="14" t="s">
         <v>26</v>
       </c>
@@ -2290,10 +2328,10 @@
       <c r="H18" s="3"/>
     </row>
     <row r="19" spans="1:11" ht="50.4" x14ac:dyDescent="0.5">
-      <c r="A19" s="37"/>
-      <c r="B19" s="39"/>
-      <c r="C19" s="42"/>
-      <c r="D19" s="36" t="s">
+      <c r="A19" s="51"/>
+      <c r="B19" s="44"/>
+      <c r="C19" s="43"/>
+      <c r="D19" s="47" t="s">
         <v>25</v>
       </c>
       <c r="E19" s="14" t="s">
@@ -2306,10 +2344,10 @@
       <c r="H19" s="3"/>
     </row>
     <row r="20" spans="1:11" ht="210.6" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A20" s="37"/>
-      <c r="B20" s="39"/>
-      <c r="C20" s="42"/>
-      <c r="D20" s="36"/>
+      <c r="A20" s="51"/>
+      <c r="B20" s="44"/>
+      <c r="C20" s="43"/>
+      <c r="D20" s="47"/>
       <c r="E20" s="16" t="s">
         <v>29</v>
       </c>
@@ -2320,7 +2358,7 @@
       <c r="H20" s="3"/>
     </row>
     <row r="21" spans="1:11" s="22" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A21" s="37"/>
+      <c r="A21" s="51"/>
       <c r="B21" s="17"/>
       <c r="C21" s="17"/>
       <c r="D21" s="19"/>
@@ -2356,16 +2394,16 @@
       </c>
     </row>
     <row r="23" spans="1:11" ht="88.2" x14ac:dyDescent="0.5">
-      <c r="A23" s="40">
+      <c r="A23" s="45">
         <v>1101</v>
       </c>
-      <c r="B23" s="39">
+      <c r="B23" s="44">
         <v>0</v>
       </c>
-      <c r="C23" s="42" t="s">
-        <v>54</v>
-      </c>
-      <c r="D23" s="46" t="s">
+      <c r="C23" s="43" t="s">
+        <v>53</v>
+      </c>
+      <c r="D23" s="32" t="s">
         <v>24</v>
       </c>
       <c r="E23" s="24" t="s">
@@ -2375,10 +2413,10 @@
       <c r="K23" s="2"/>
     </row>
     <row r="24" spans="1:11" ht="83.1" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A24" s="40"/>
-      <c r="B24" s="39"/>
-      <c r="C24" s="42"/>
-      <c r="D24" s="46" t="s">
+      <c r="A24" s="45"/>
+      <c r="B24" s="44"/>
+      <c r="C24" s="43"/>
+      <c r="D24" s="32" t="s">
         <v>35</v>
       </c>
       <c r="E24" s="14" t="s">
@@ -2390,10 +2428,10 @@
       <c r="K24" s="2"/>
     </row>
     <row r="25" spans="1:11" ht="69.900000000000006" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A25" s="40"/>
-      <c r="B25" s="39"/>
-      <c r="C25" s="42"/>
-      <c r="D25" s="34" t="s">
+      <c r="A25" s="45"/>
+      <c r="B25" s="44"/>
+      <c r="C25" s="43"/>
+      <c r="D25" s="46" t="s">
         <v>36</v>
       </c>
       <c r="E25" s="14" t="s">
@@ -2405,10 +2443,10 @@
       <c r="K25" s="2"/>
     </row>
     <row r="26" spans="1:11" ht="75.599999999999994" x14ac:dyDescent="0.5">
-      <c r="A26" s="40"/>
-      <c r="B26" s="39"/>
-      <c r="C26" s="42"/>
-      <c r="D26" s="34"/>
+      <c r="A26" s="45"/>
+      <c r="B26" s="44"/>
+      <c r="C26" s="43"/>
+      <c r="D26" s="46"/>
       <c r="E26" s="16" t="s">
         <v>30</v>
       </c>
@@ -2418,10 +2456,10 @@
       <c r="K26" s="2"/>
     </row>
     <row r="27" spans="1:11" ht="84.9" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A27" s="40"/>
-      <c r="B27" s="39"/>
-      <c r="C27" s="42"/>
-      <c r="D27" s="34"/>
+      <c r="A27" s="45"/>
+      <c r="B27" s="44"/>
+      <c r="C27" s="43"/>
+      <c r="D27" s="46"/>
       <c r="E27" s="16" t="s">
         <v>31</v>
       </c>
@@ -2463,16 +2501,16 @@
       </c>
     </row>
     <row r="30" spans="1:11" ht="108" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A30" s="41">
+      <c r="A30" s="49">
         <v>1102</v>
       </c>
-      <c r="B30" s="39">
+      <c r="B30" s="44">
         <v>0</v>
       </c>
-      <c r="C30" s="42" t="s">
-        <v>53</v>
-      </c>
-      <c r="D30" s="46" t="s">
+      <c r="C30" s="43" t="s">
+        <v>52</v>
+      </c>
+      <c r="D30" s="32" t="s">
         <v>24</v>
       </c>
       <c r="E30" s="24" t="s">
@@ -2481,10 +2519,10 @@
       <c r="F30" s="14"/>
     </row>
     <row r="31" spans="1:11" ht="75.599999999999994" x14ac:dyDescent="0.5">
-      <c r="A31" s="41"/>
-      <c r="B31" s="39"/>
-      <c r="C31" s="42"/>
-      <c r="D31" s="46" t="s">
+      <c r="A31" s="49"/>
+      <c r="B31" s="44"/>
+      <c r="C31" s="43"/>
+      <c r="D31" s="32" t="s">
         <v>35</v>
       </c>
       <c r="E31" s="14" t="s">
@@ -2495,10 +2533,10 @@
       </c>
     </row>
     <row r="32" spans="1:11" ht="50.4" x14ac:dyDescent="0.5">
-      <c r="A32" s="41"/>
-      <c r="B32" s="39"/>
-      <c r="C32" s="42"/>
-      <c r="D32" s="34" t="s">
+      <c r="A32" s="49"/>
+      <c r="B32" s="44"/>
+      <c r="C32" s="43"/>
+      <c r="D32" s="46" t="s">
         <v>36</v>
       </c>
       <c r="E32" s="14" t="s">
@@ -2509,10 +2547,10 @@
       </c>
     </row>
     <row r="33" spans="1:8" ht="85.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A33" s="41"/>
-      <c r="B33" s="39"/>
-      <c r="C33" s="42"/>
-      <c r="D33" s="34"/>
+      <c r="A33" s="49"/>
+      <c r="B33" s="44"/>
+      <c r="C33" s="43"/>
+      <c r="D33" s="46"/>
       <c r="E33" s="16" t="s">
         <v>43</v>
       </c>
@@ -2521,10 +2559,10 @@
       </c>
     </row>
     <row r="34" spans="1:8" ht="76.2" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A34" s="41"/>
-      <c r="B34" s="39"/>
-      <c r="C34" s="42"/>
-      <c r="D34" s="34"/>
+      <c r="A34" s="49"/>
+      <c r="B34" s="44"/>
+      <c r="C34" s="43"/>
+      <c r="D34" s="46"/>
       <c r="E34" s="16" t="s">
         <v>38</v>
       </c>
@@ -2565,38 +2603,38 @@
       </c>
     </row>
     <row r="37" spans="1:8" ht="88.2" x14ac:dyDescent="0.5">
-      <c r="A37" s="47">
+      <c r="A37" s="48">
         <v>1103</v>
       </c>
-      <c r="B37" s="39">
+      <c r="B37" s="44">
         <v>1102</v>
       </c>
-      <c r="C37" s="42" t="s">
-        <v>52</v>
+      <c r="C37" s="43" t="s">
+        <v>51</v>
       </c>
       <c r="D37" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="E37" s="46" t="s">
+      <c r="E37" s="32" t="s">
         <v>46</v>
       </c>
       <c r="F37" s="14"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A38" s="47"/>
-      <c r="B38" s="39"/>
-      <c r="C38" s="42"/>
+      <c r="A38" s="48"/>
+      <c r="B38" s="44"/>
+      <c r="C38" s="43"/>
       <c r="D38" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="E38" s="43" t="s">
+      <c r="E38" s="31" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="66" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A39" s="47"/>
-      <c r="B39" s="39"/>
-      <c r="C39" s="42"/>
+      <c r="A39" s="48"/>
+      <c r="B39" s="44"/>
+      <c r="C39" s="43"/>
       <c r="E39" s="14" t="s">
         <v>45</v>
       </c>
@@ -2604,11 +2642,11 @@
         <v>47</v>
       </c>
     </row>
-    <row r="40" spans="1:8" s="50" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A40" s="48"/>
-      <c r="B40" s="48"/>
-      <c r="C40" s="48"/>
-      <c r="D40" s="49"/>
+    <row r="40" spans="1:8" s="35" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A40" s="33"/>
+      <c r="B40" s="33"/>
+      <c r="C40" s="33"/>
+      <c r="D40" s="34"/>
     </row>
     <row r="41" spans="1:8" s="4" customFormat="1" ht="17.7" x14ac:dyDescent="0.5">
       <c r="A41" s="6" t="s">
@@ -2636,118 +2674,116 @@
         <v>5</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="56.4" x14ac:dyDescent="0.5">
-      <c r="A42" s="51">
+    <row r="42" spans="1:8" ht="42.3" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A42" s="55">
         <v>1104</v>
       </c>
-      <c r="B42" s="31">
+      <c r="B42" s="44">
+        <v>1102</v>
+      </c>
+      <c r="C42" s="43" t="s">
+        <v>60</v>
+      </c>
+      <c r="D42" s="32" t="s">
+        <v>55</v>
+      </c>
+      <c r="E42" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="F42" s="31"/>
+    </row>
+    <row r="43" spans="1:8" ht="96.6" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A43" s="55"/>
+      <c r="B43" s="44"/>
+      <c r="C43" s="43"/>
+      <c r="D43" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="E43" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="F43" s="24" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" s="38" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A44" s="36"/>
+      <c r="B44" s="37"/>
+      <c r="D44" s="39"/>
+    </row>
+    <row r="45" spans="1:8" s="4" customFormat="1" ht="17.7" x14ac:dyDescent="0.5">
+      <c r="A45" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B45" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C42" s="45" t="s">
+      <c r="C45" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E45" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F45" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G45" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="H45" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="102.3" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A46" s="42">
+        <v>1105</v>
+      </c>
+      <c r="B46" s="44">
+        <v>1102</v>
+      </c>
+      <c r="C46" s="43" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="43" spans="1:8" s="55" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A43" s="51"/>
-      <c r="B43" s="52"/>
-      <c r="C43" s="53"/>
-      <c r="D43" s="54"/>
-    </row>
-    <row r="44" spans="1:8" s="4" customFormat="1" ht="17.7" x14ac:dyDescent="0.5">
-      <c r="A44" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B44" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C44" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D44" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E44" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="F44" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="G44" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="H44" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" ht="102.3" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A45" s="56">
-        <v>1105</v>
-      </c>
-      <c r="B45" s="39">
-        <v>1102</v>
-      </c>
-      <c r="C45" s="42" t="s">
+      <c r="D46" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="E46" s="32" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A47" s="42"/>
+      <c r="B47" s="44"/>
+      <c r="C47" s="43"/>
+      <c r="D47" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="E47" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="D45" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="E45" s="46" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A46" s="56"/>
-      <c r="B46" s="39"/>
-      <c r="C46" s="42"/>
-      <c r="D46" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="E46" s="43" t="s">
+    </row>
+    <row r="48" spans="1:8" ht="63.6" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A48" s="42"/>
+      <c r="B48" s="44"/>
+      <c r="C48" s="43"/>
+      <c r="E48" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="F48" s="14" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="63.6" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A47" s="56"/>
-      <c r="B47" s="39"/>
-      <c r="C47" s="42"/>
-      <c r="E47" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="F47" s="14" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A48" s="57"/>
-      <c r="B48" s="57"/>
-      <c r="C48" s="57"/>
-      <c r="D48" s="58"/>
+    <row r="49" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A49" s="40"/>
+      <c r="B49" s="40"/>
+      <c r="C49" s="40"/>
+      <c r="D49" s="41"/>
     </row>
   </sheetData>
-  <mergeCells count="33">
-    <mergeCell ref="A45:A47"/>
-    <mergeCell ref="C23:C27"/>
-    <mergeCell ref="B23:B27"/>
-    <mergeCell ref="A23:A27"/>
-    <mergeCell ref="D25:D27"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="C37:C39"/>
-    <mergeCell ref="D32:D34"/>
-    <mergeCell ref="C45:C47"/>
-    <mergeCell ref="B45:B47"/>
-    <mergeCell ref="B17:B20"/>
-    <mergeCell ref="C17:C20"/>
-    <mergeCell ref="A37:A39"/>
-    <mergeCell ref="B37:B39"/>
-    <mergeCell ref="A30:A34"/>
-    <mergeCell ref="B30:B34"/>
-    <mergeCell ref="C30:C34"/>
-    <mergeCell ref="A12:A14"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="A17:A21"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
+  <mergeCells count="36">
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A2:A11"/>
     <mergeCell ref="B2:F2"/>
@@ -2759,6 +2795,31 @@
     <mergeCell ref="B8:F8"/>
     <mergeCell ref="B9:F9"/>
     <mergeCell ref="B10:F10"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="A17:A21"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="C37:C39"/>
+    <mergeCell ref="D32:D34"/>
+    <mergeCell ref="C46:C48"/>
+    <mergeCell ref="B46:B48"/>
+    <mergeCell ref="B17:B20"/>
+    <mergeCell ref="C17:C20"/>
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="B30:B34"/>
+    <mergeCell ref="C30:C34"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="A46:A48"/>
+    <mergeCell ref="C23:C27"/>
+    <mergeCell ref="B23:B27"/>
+    <mergeCell ref="A23:A27"/>
+    <mergeCell ref="D25:D27"/>
+    <mergeCell ref="A37:A39"/>
+    <mergeCell ref="A30:A34"/>
+    <mergeCell ref="A42:A43"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/source/_static/testcase/集成测试/实时用电数据-1100.xlsx
+++ b/docs/source/_static/testcase/集成测试/实时用电数据-1100.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\CommonComponents\ControllerDocs\docs\source\_static\testcase\集成测试\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABC39915-5037-446B-BD73-627F95210748}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77C948EB-9131-47CE-B88C-373F8B20B7DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="66">
   <si>
     <t>用例依赖</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1494,12 +1494,90 @@
 (每15分钟上传一次)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>1 节能设备电源均已接通。
+2 节能设备已正确接入平台。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3 控制器、采集器、空调等所有设备通电，
+   并处于工作状态
+4 平台可查所有设备已在线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5 设置节能参数
+  * 登录平台，"设备管理" -&gt; "在运行控制器维护" 
+  * 单击“查询”， 在查询列表中选择目标控制器.
+  * 在控制器的“节能配置”中设置：
+    * 工作温度上限： 28℃
+    * 工作参数上限补偿值: 0 (默认)
+    * 工作温度下限： 19℃ 
+       (参考测试环境, 此值高于实测空调待机时回风温度，
+       且在空调制冷能力范围)
+    * 工作参数下限补偿值: 0 (默认)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1 打开用电量统计页面
+   - 查看用电数据: 
+          设备管理-&gt;站点设备信息-&gt;目标站点-&gt;
+          数据报表-&gt;用电数据-&gt;目标控制器-&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>用电量统计</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>节能系统
+用电量数据周期上传
+（北京时间整刻钟, 即
+第0分钟、15分钟、30分钟、45分钟）
+(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFED0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>表中未展示当日用电量细则</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1581,6 +1659,15 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFED0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="10">
     <fill>
@@ -1650,7 +1737,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1763,47 +1850,53 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2090,10 +2183,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF76E413-BEF3-4246-80F6-736520C81AC5}">
-  <dimension ref="A1:K49"/>
+  <dimension ref="A1:K58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42:C43"/>
+    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="B51" sqref="B51:B53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.5"/>
@@ -2109,111 +2202,111 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="19.8" x14ac:dyDescent="0.65">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
     </row>
     <row r="2" spans="1:8" ht="17.7" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="46" t="s">
+      <c r="B2" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
     </row>
     <row r="3" spans="1:8" ht="17.7" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A3" s="54"/>
-      <c r="B3" s="46" t="s">
+      <c r="A3" s="43"/>
+      <c r="B3" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
     </row>
     <row r="4" spans="1:8" ht="17.7" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A4" s="54"/>
-      <c r="B4" s="46" t="s">
+      <c r="A4" s="43"/>
+      <c r="B4" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="46"/>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="44"/>
     </row>
     <row r="5" spans="1:8" ht="17.7" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A5" s="54"/>
-      <c r="B5" s="46" t="s">
+      <c r="A5" s="43"/>
+      <c r="B5" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="46"/>
-      <c r="D5" s="46"/>
-      <c r="E5" s="46"/>
-      <c r="F5" s="46"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
     </row>
     <row r="6" spans="1:8" ht="17.7" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A6" s="54"/>
-      <c r="B6" s="46" t="s">
+      <c r="A6" s="43"/>
+      <c r="B6" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="46"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="46"/>
-      <c r="F6" s="46"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="44"/>
     </row>
     <row r="7" spans="1:8" ht="17.7" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A7" s="54"/>
-      <c r="B7" s="46" t="s">
+      <c r="A7" s="43"/>
+      <c r="B7" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="46"/>
-      <c r="D7" s="46"/>
-      <c r="E7" s="46"/>
-      <c r="F7" s="46"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="44"/>
+      <c r="F7" s="44"/>
     </row>
     <row r="8" spans="1:8" ht="17.7" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A8" s="54"/>
-      <c r="B8" s="46" t="s">
+      <c r="A8" s="43"/>
+      <c r="B8" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="46"/>
-      <c r="D8" s="46"/>
-      <c r="E8" s="46"/>
-      <c r="F8" s="46"/>
+      <c r="C8" s="44"/>
+      <c r="D8" s="44"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="44"/>
     </row>
     <row r="9" spans="1:8" ht="67.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A9" s="54"/>
-      <c r="B9" s="46" t="s">
+      <c r="A9" s="43"/>
+      <c r="B9" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="46"/>
-      <c r="D9" s="46"/>
-      <c r="E9" s="46"/>
-      <c r="F9" s="46"/>
+      <c r="C9" s="44"/>
+      <c r="D9" s="44"/>
+      <c r="E9" s="44"/>
+      <c r="F9" s="44"/>
     </row>
     <row r="10" spans="1:8" ht="17.7" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A10" s="54"/>
-      <c r="B10" s="46" t="s">
+      <c r="A10" s="43"/>
+      <c r="B10" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="46"/>
-      <c r="D10" s="46"/>
-      <c r="E10" s="46"/>
-      <c r="F10" s="46"/>
+      <c r="C10" s="44"/>
+      <c r="D10" s="44"/>
+      <c r="E10" s="44"/>
+      <c r="F10" s="44"/>
     </row>
     <row r="11" spans="1:8" ht="17.7" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A11" s="54"/>
+      <c r="A11" s="43"/>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
       <c r="D11" s="11"/>
@@ -2223,13 +2316,13 @@
       <c r="H11" s="8"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A12" s="50" t="s">
+      <c r="A12" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="47" t="s">
+      <c r="B12" s="46" t="s">
         <v>40</v>
       </c>
-      <c r="C12" s="47"/>
+      <c r="C12" s="46"/>
       <c r="D12" s="14"/>
       <c r="E12" s="14"/>
       <c r="F12" s="14"/>
@@ -2237,9 +2330,9 @@
       <c r="H12" s="14"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A13" s="50"/>
-      <c r="B13" s="52"/>
-      <c r="C13" s="52"/>
+      <c r="A13" s="45"/>
+      <c r="B13" s="48"/>
+      <c r="C13" s="48"/>
       <c r="D13" s="14"/>
       <c r="E13" s="14"/>
       <c r="F13" s="14"/>
@@ -2247,9 +2340,9 @@
       <c r="H13" s="14"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A14" s="50"/>
-      <c r="B14" s="52"/>
-      <c r="C14" s="52"/>
+      <c r="A14" s="45"/>
+      <c r="B14" s="48"/>
+      <c r="C14" s="48"/>
       <c r="D14" s="14"/>
       <c r="E14" s="14"/>
       <c r="F14" s="14"/>
@@ -2293,13 +2386,13 @@
       </c>
     </row>
     <row r="17" spans="1:11" ht="88.2" x14ac:dyDescent="0.5">
-      <c r="A17" s="51">
+      <c r="A17" s="47">
         <v>1100</v>
       </c>
-      <c r="B17" s="44">
+      <c r="B17" s="50">
         <v>0</v>
       </c>
-      <c r="C17" s="43" t="s">
+      <c r="C17" s="49" t="s">
         <v>54</v>
       </c>
       <c r="D17" s="24" t="s">
@@ -2312,9 +2405,9 @@
       <c r="H17" s="3"/>
     </row>
     <row r="18" spans="1:11" ht="100.8" x14ac:dyDescent="0.5">
-      <c r="A18" s="51"/>
-      <c r="B18" s="44"/>
-      <c r="C18" s="43"/>
+      <c r="A18" s="47"/>
+      <c r="B18" s="50"/>
+      <c r="C18" s="49"/>
       <c r="D18" s="14" t="s">
         <v>26</v>
       </c>
@@ -2328,10 +2421,10 @@
       <c r="H18" s="3"/>
     </row>
     <row r="19" spans="1:11" ht="50.4" x14ac:dyDescent="0.5">
-      <c r="A19" s="51"/>
-      <c r="B19" s="44"/>
-      <c r="C19" s="43"/>
-      <c r="D19" s="47" t="s">
+      <c r="A19" s="47"/>
+      <c r="B19" s="50"/>
+      <c r="C19" s="49"/>
+      <c r="D19" s="46" t="s">
         <v>25</v>
       </c>
       <c r="E19" s="14" t="s">
@@ -2344,10 +2437,10 @@
       <c r="H19" s="3"/>
     </row>
     <row r="20" spans="1:11" ht="210.6" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A20" s="51"/>
-      <c r="B20" s="44"/>
-      <c r="C20" s="43"/>
-      <c r="D20" s="47"/>
+      <c r="A20" s="47"/>
+      <c r="B20" s="50"/>
+      <c r="C20" s="49"/>
+      <c r="D20" s="46"/>
       <c r="E20" s="16" t="s">
         <v>29</v>
       </c>
@@ -2358,7 +2451,7 @@
       <c r="H20" s="3"/>
     </row>
     <row r="21" spans="1:11" s="22" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A21" s="51"/>
+      <c r="A21" s="47"/>
       <c r="B21" s="17"/>
       <c r="C21" s="17"/>
       <c r="D21" s="19"/>
@@ -2394,13 +2487,13 @@
       </c>
     </row>
     <row r="23" spans="1:11" ht="88.2" x14ac:dyDescent="0.5">
-      <c r="A23" s="45">
+      <c r="A23" s="52">
         <v>1101</v>
       </c>
-      <c r="B23" s="44">
+      <c r="B23" s="50">
         <v>0</v>
       </c>
-      <c r="C23" s="43" t="s">
+      <c r="C23" s="49" t="s">
         <v>53</v>
       </c>
       <c r="D23" s="32" t="s">
@@ -2413,9 +2506,9 @@
       <c r="K23" s="2"/>
     </row>
     <row r="24" spans="1:11" ht="83.1" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A24" s="45"/>
-      <c r="B24" s="44"/>
-      <c r="C24" s="43"/>
+      <c r="A24" s="52"/>
+      <c r="B24" s="50"/>
+      <c r="C24" s="49"/>
       <c r="D24" s="32" t="s">
         <v>35</v>
       </c>
@@ -2428,10 +2521,10 @@
       <c r="K24" s="2"/>
     </row>
     <row r="25" spans="1:11" ht="69.900000000000006" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A25" s="45"/>
-      <c r="B25" s="44"/>
-      <c r="C25" s="43"/>
-      <c r="D25" s="46" t="s">
+      <c r="A25" s="52"/>
+      <c r="B25" s="50"/>
+      <c r="C25" s="49"/>
+      <c r="D25" s="44" t="s">
         <v>36</v>
       </c>
       <c r="E25" s="14" t="s">
@@ -2443,10 +2536,10 @@
       <c r="K25" s="2"/>
     </row>
     <row r="26" spans="1:11" ht="75.599999999999994" x14ac:dyDescent="0.5">
-      <c r="A26" s="45"/>
-      <c r="B26" s="44"/>
-      <c r="C26" s="43"/>
-      <c r="D26" s="46"/>
+      <c r="A26" s="52"/>
+      <c r="B26" s="50"/>
+      <c r="C26" s="49"/>
+      <c r="D26" s="44"/>
       <c r="E26" s="16" t="s">
         <v>30</v>
       </c>
@@ -2456,10 +2549,10 @@
       <c r="K26" s="2"/>
     </row>
     <row r="27" spans="1:11" ht="84.9" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A27" s="45"/>
-      <c r="B27" s="44"/>
-      <c r="C27" s="43"/>
-      <c r="D27" s="46"/>
+      <c r="A27" s="52"/>
+      <c r="B27" s="50"/>
+      <c r="C27" s="49"/>
+      <c r="D27" s="44"/>
       <c r="E27" s="16" t="s">
         <v>31</v>
       </c>
@@ -2501,13 +2594,13 @@
       </c>
     </row>
     <row r="30" spans="1:11" ht="108" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A30" s="49">
+      <c r="A30" s="54">
         <v>1102</v>
       </c>
-      <c r="B30" s="44">
+      <c r="B30" s="50">
         <v>0</v>
       </c>
-      <c r="C30" s="43" t="s">
+      <c r="C30" s="49" t="s">
         <v>52</v>
       </c>
       <c r="D30" s="32" t="s">
@@ -2519,9 +2612,9 @@
       <c r="F30" s="14"/>
     </row>
     <row r="31" spans="1:11" ht="75.599999999999994" x14ac:dyDescent="0.5">
-      <c r="A31" s="49"/>
-      <c r="B31" s="44"/>
-      <c r="C31" s="43"/>
+      <c r="A31" s="54"/>
+      <c r="B31" s="50"/>
+      <c r="C31" s="49"/>
       <c r="D31" s="32" t="s">
         <v>35</v>
       </c>
@@ -2533,10 +2626,10 @@
       </c>
     </row>
     <row r="32" spans="1:11" ht="50.4" x14ac:dyDescent="0.5">
-      <c r="A32" s="49"/>
-      <c r="B32" s="44"/>
-      <c r="C32" s="43"/>
-      <c r="D32" s="46" t="s">
+      <c r="A32" s="54"/>
+      <c r="B32" s="50"/>
+      <c r="C32" s="49"/>
+      <c r="D32" s="44" t="s">
         <v>36</v>
       </c>
       <c r="E32" s="14" t="s">
@@ -2547,10 +2640,10 @@
       </c>
     </row>
     <row r="33" spans="1:8" ht="85.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A33" s="49"/>
-      <c r="B33" s="44"/>
-      <c r="C33" s="43"/>
-      <c r="D33" s="46"/>
+      <c r="A33" s="54"/>
+      <c r="B33" s="50"/>
+      <c r="C33" s="49"/>
+      <c r="D33" s="44"/>
       <c r="E33" s="16" t="s">
         <v>43</v>
       </c>
@@ -2559,10 +2652,10 @@
       </c>
     </row>
     <row r="34" spans="1:8" ht="76.2" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A34" s="49"/>
-      <c r="B34" s="44"/>
-      <c r="C34" s="43"/>
-      <c r="D34" s="46"/>
+      <c r="A34" s="54"/>
+      <c r="B34" s="50"/>
+      <c r="C34" s="49"/>
+      <c r="D34" s="44"/>
       <c r="E34" s="16" t="s">
         <v>38</v>
       </c>
@@ -2603,13 +2696,13 @@
       </c>
     </row>
     <row r="37" spans="1:8" ht="88.2" x14ac:dyDescent="0.5">
-      <c r="A37" s="48">
+      <c r="A37" s="53">
         <v>1103</v>
       </c>
-      <c r="B37" s="44">
+      <c r="B37" s="50">
         <v>1102</v>
       </c>
-      <c r="C37" s="43" t="s">
+      <c r="C37" s="49" t="s">
         <v>51</v>
       </c>
       <c r="D37" s="24" t="s">
@@ -2621,9 +2714,9 @@
       <c r="F37" s="14"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A38" s="48"/>
-      <c r="B38" s="44"/>
-      <c r="C38" s="43"/>
+      <c r="A38" s="53"/>
+      <c r="B38" s="50"/>
+      <c r="C38" s="49"/>
       <c r="D38" s="15" t="s">
         <v>42</v>
       </c>
@@ -2632,9 +2725,9 @@
       </c>
     </row>
     <row r="39" spans="1:8" ht="66" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A39" s="48"/>
-      <c r="B39" s="44"/>
-      <c r="C39" s="43"/>
+      <c r="A39" s="53"/>
+      <c r="B39" s="50"/>
+      <c r="C39" s="49"/>
       <c r="E39" s="14" t="s">
         <v>45</v>
       </c>
@@ -2678,10 +2771,10 @@
       <c r="A42" s="55">
         <v>1104</v>
       </c>
-      <c r="B42" s="44">
+      <c r="B42" s="50">
         <v>1102</v>
       </c>
-      <c r="C42" s="43" t="s">
+      <c r="C42" s="49" t="s">
         <v>60</v>
       </c>
       <c r="D42" s="32" t="s">
@@ -2694,8 +2787,8 @@
     </row>
     <row r="43" spans="1:8" ht="96.6" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A43" s="55"/>
-      <c r="B43" s="44"/>
-      <c r="C43" s="43"/>
+      <c r="B43" s="50"/>
+      <c r="C43" s="49"/>
       <c r="D43" s="32" t="s">
         <v>56</v>
       </c>
@@ -2738,13 +2831,13 @@
       </c>
     </row>
     <row r="46" spans="1:8" ht="102.3" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A46" s="42">
+      <c r="A46" s="51">
         <v>1105</v>
       </c>
-      <c r="B46" s="44">
+      <c r="B46" s="50">
         <v>1102</v>
       </c>
-      <c r="C46" s="43" t="s">
+      <c r="C46" s="49" t="s">
         <v>48</v>
       </c>
       <c r="D46" s="24" t="s">
@@ -2755,9 +2848,9 @@
       </c>
     </row>
     <row r="47" spans="1:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A47" s="42"/>
-      <c r="B47" s="44"/>
-      <c r="C47" s="43"/>
+      <c r="A47" s="51"/>
+      <c r="B47" s="50"/>
+      <c r="C47" s="49"/>
       <c r="D47" s="15" t="s">
         <v>42</v>
       </c>
@@ -2766,9 +2859,9 @@
       </c>
     </row>
     <row r="48" spans="1:8" ht="63.6" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A48" s="42"/>
-      <c r="B48" s="44"/>
-      <c r="C48" s="43"/>
+      <c r="A48" s="51"/>
+      <c r="B48" s="50"/>
+      <c r="C48" s="49"/>
       <c r="E48" s="14" t="s">
         <v>45</v>
       </c>
@@ -2776,30 +2869,124 @@
         <v>50</v>
       </c>
     </row>
-    <row r="49" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="49" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A49" s="40"/>
       <c r="B49" s="40"/>
       <c r="C49" s="40"/>
       <c r="D49" s="41"/>
     </row>
+    <row r="50" spans="1:8" s="4" customFormat="1" ht="17.7" x14ac:dyDescent="0.5">
+      <c r="A50" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E50" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F50" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G50" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="H50" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="70.5" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A51" s="50">
+        <v>1120</v>
+      </c>
+      <c r="B51" s="50">
+        <v>0</v>
+      </c>
+      <c r="C51" s="48" t="s">
+        <v>65</v>
+      </c>
+      <c r="D51" s="32" t="s">
+        <v>61</v>
+      </c>
+      <c r="E51" s="24" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="37.799999999999997" x14ac:dyDescent="0.5">
+      <c r="A52" s="50"/>
+      <c r="B52" s="50"/>
+      <c r="C52" s="48"/>
+      <c r="D52" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="E52" s="57"/>
+    </row>
+    <row r="53" spans="1:8" ht="144.9" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A53" s="50"/>
+      <c r="B53" s="50"/>
+      <c r="C53" s="48"/>
+      <c r="D53" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="E53" s="57"/>
+    </row>
+    <row r="54" spans="1:8" s="4" customFormat="1" ht="17.7" x14ac:dyDescent="0.5">
+      <c r="A54" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C54" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D54" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E54" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F54" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G54" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="H54" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="D55" s="56"/>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="D56" s="56"/>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="D57" s="56"/>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="D58" s="56"/>
+    </row>
   </sheetData>
-  <mergeCells count="36">
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:A11"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="B10:F10"/>
-    <mergeCell ref="A12:A14"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="A17:A21"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
+  <mergeCells count="39">
+    <mergeCell ref="C51:C53"/>
+    <mergeCell ref="B51:B53"/>
+    <mergeCell ref="A51:A53"/>
+    <mergeCell ref="A46:A48"/>
+    <mergeCell ref="C23:C27"/>
+    <mergeCell ref="B23:B27"/>
+    <mergeCell ref="A23:A27"/>
+    <mergeCell ref="D25:D27"/>
+    <mergeCell ref="A37:A39"/>
+    <mergeCell ref="A30:A34"/>
+    <mergeCell ref="A42:A43"/>
     <mergeCell ref="D19:D20"/>
     <mergeCell ref="C37:C39"/>
     <mergeCell ref="D32:D34"/>
@@ -2812,14 +2999,22 @@
     <mergeCell ref="C30:C34"/>
     <mergeCell ref="B42:B43"/>
     <mergeCell ref="C42:C43"/>
-    <mergeCell ref="A46:A48"/>
-    <mergeCell ref="C23:C27"/>
-    <mergeCell ref="B23:B27"/>
-    <mergeCell ref="A23:A27"/>
-    <mergeCell ref="D25:D27"/>
-    <mergeCell ref="A37:A39"/>
-    <mergeCell ref="A30:A34"/>
-    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="A17:A21"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:A11"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="B10:F10"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
